--- a/eclipse-workspace/SeleniumBasics/target/test-classes/TestData.xlsx
+++ b/eclipse-workspace/SeleniumBasics/target/test-classes/TestData.xlsx
@@ -135,7 +135,7 @@
     <t>testing</t>
   </si>
   <si>
-    <t>testtest1234@test.com</t>
+    <t>testtest1234@yop.com</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
